--- a/artfynd/A 15591-2023 artfynd.xlsx
+++ b/artfynd/A 15591-2023 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,6 +1219,567 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131321686</v>
+      </c>
+      <c r="B7" t="n">
+        <v>91776</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Bergsboda, Vb</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>762874</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7082171</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Umeå stad</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131321684</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Bergsboda, Vb</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>762920</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7082182</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Umeå stad</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Två granar, hyggeskanten.</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131321677</v>
+      </c>
+      <c r="B9" t="n">
+        <v>91776</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Bergsboda, Vb</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>763042</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7082241</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Umeå stad</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>10:31</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131321669</v>
+      </c>
+      <c r="B10" t="n">
+        <v>91776</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Bergsboda, Vb</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>763007</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7082257</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Umeå stad</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>09:58</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131321688</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91833</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Bergsboda, Vb</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>762922</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7082225</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Umeå stad</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Edvin Strandberg</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 15591-2023 artfynd.xlsx
+++ b/artfynd/A 15591-2023 artfynd.xlsx
@@ -1224,7 +1224,7 @@
         <v>131321686</v>
       </c>
       <c r="B7" t="n">
-        <v>91776</v>
+        <v>91777</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>131321677</v>
       </c>
       <c r="B9" t="n">
-        <v>91776</v>
+        <v>91777</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>131321669</v>
       </c>
       <c r="B10" t="n">
-        <v>91776</v>
+        <v>91777</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
         <v>131321688</v>
       </c>
       <c r="B11" t="n">
-        <v>91833</v>
+        <v>91834</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
